--- a/expirement.xlsx
+++ b/expirement.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohrim\Desktop\Proj\OpenGL_tesing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B3CD6F-0655-44FA-B2E0-18ADA4CAD607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF40A0-3387-43DC-8863-0638E6F2B773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{799793A0-8441-4BF2-B92B-D37C66CA1FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$21:$E$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$A$24:$E$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,10 +37,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -119,6 +137,18 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Intel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Core i5-8265U</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>800x600</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
@@ -163,6 +193,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>CHB ON</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -224,6 +257,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>CHB OFF</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -348,6 +384,7 @@
         <c:axId val="979726016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -856,6 +893,780 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GTX1060 6GB (1280x720</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CHB ON</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1738.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1725.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1723.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1725.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1727.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63D0-402F-954D-0D68795CA1EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CHB OFF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1375.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1374.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1374.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1375.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63D0-402F-954D-0D68795CA1EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1617306800"/>
+        <c:axId val="1617312624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1617306800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617312624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1617312624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617306800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35849036404674861"/>
+          <c:y val="0.89176576483268466"/>
+          <c:w val="0.36142215882816237"/>
+          <c:h val="7.9562704717652533E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GTX1060 6GB (19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>0x1080)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CHB ON</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1009.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1010.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1008.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1009.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1008.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCC8-4B79-B1A1-9F11EFA8DD81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CHB OFF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>802.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>803.48299999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>802.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>803.18299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCC8-4B79-B1A1-9F11EFA8DD81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1617302224"/>
+        <c:axId val="1617303472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1617302224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617303472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1617303472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617302224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -936,6 +1747,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1453,6 +2344,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2037,6 +3960,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8373</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>301450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165798</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78BAAD9-EF2F-43FF-9D7C-CBEB4A7B0BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>301451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>594528</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B0B31B-F0BA-465E-B5C3-60B239D63EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2342,15 +4337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9AF735-9011-4073-BE61-7973526D6315}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>543.86699999999996</v>
       </c>
@@ -2382,7 +4377,7 @@
         <v>538.53300000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.84797E-3</v>
       </c>
@@ -2413,8 +4408,12 @@
       <c r="J2">
         <v>1.82782E-3</v>
       </c>
+      <c r="K2" s="1">
+        <f>AVERAGE(A2:J2)</f>
+        <v>1.8535740000000002E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>394.6</v>
       </c>
@@ -2446,7 +4445,7 @@
         <v>393.18599999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5256900000000001E-3</v>
       </c>
@@ -2477,8 +4476,12 @@
       <c r="J5">
         <v>2.5618400000000001E-3</v>
       </c>
+      <c r="K5" s="1">
+        <f>AVERAGE(A5:J5)</f>
+        <v>2.53973E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>313.82799999999997</v>
       </c>
@@ -2487,22 +4490,22 @@
         <v>1.3713202039755124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.1772200000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>228.851</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.3861100000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>144.74600000000001</v>
       </c>
@@ -2511,22 +4514,22 @@
         <v>1.3902511645776308</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6.95753E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>104.11499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.5724999999999994E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>A1/A4</f>
         <v>1.3782742017232639</v>
@@ -2566,6 +4569,214 @@
       <c r="J19">
         <f t="shared" si="0"/>
         <v>1.3696647388258993</v>
+      </c>
+      <c r="K19" s="1">
+        <f>AVERAGE(A19:J19)</f>
+        <v>1.3699763243807042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1738.3</v>
+      </c>
+      <c r="B21">
+        <v>1725.43</v>
+      </c>
+      <c r="C21">
+        <v>1723.03</v>
+      </c>
+      <c r="D21">
+        <v>1725.95</v>
+      </c>
+      <c r="E21">
+        <v>1727.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5.7671899999999995E-4</v>
+      </c>
+      <c r="B22">
+        <v>5.8512899999999999E-4</v>
+      </c>
+      <c r="C22">
+        <v>5.7215300000000005E-4</v>
+      </c>
+      <c r="D22">
+        <v>5.7620999999999996E-4</v>
+      </c>
+      <c r="E22">
+        <v>5.9506700000000001E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <f>AVERAGE(A22:E22)</f>
+        <v>5.8105560000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1375.33</v>
+      </c>
+      <c r="B24">
+        <v>1374.28</v>
+      </c>
+      <c r="C24">
+        <v>1374.63</v>
+      </c>
+      <c r="D24">
+        <v>1375.55</v>
+      </c>
+      <c r="E24">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7.2585300000000005E-4</v>
+      </c>
+      <c r="B25">
+        <v>7.2723199999999997E-4</v>
+      </c>
+      <c r="C25">
+        <v>7.2540199999999999E-4</v>
+      </c>
+      <c r="D25">
+        <v>7.27069E-4</v>
+      </c>
+      <c r="E25">
+        <v>7.3443300000000005E-4</v>
+      </c>
+      <c r="F25" s="1">
+        <f>AVERAGE(A25:E25)</f>
+        <v>7.2799779999999992E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1009.97</v>
+      </c>
+      <c r="B27">
+        <v>1010.83</v>
+      </c>
+      <c r="C27">
+        <v>1008.5</v>
+      </c>
+      <c r="D27">
+        <v>1009.63</v>
+      </c>
+      <c r="E27">
+        <v>1008.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9.8880499999999994E-4</v>
+      </c>
+      <c r="B28">
+        <v>9.7806900000000003E-4</v>
+      </c>
+      <c r="C28">
+        <v>9.7665199999999995E-4</v>
+      </c>
+      <c r="D28">
+        <v>9.825630000000001E-4</v>
+      </c>
+      <c r="E28">
+        <v>9.9435600000000006E-4</v>
+      </c>
+      <c r="F28" s="1">
+        <f>AVERAGE(A28:E28)</f>
+        <v>9.8408900000000006E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>802.95</v>
+      </c>
+      <c r="B30">
+        <v>803.48299999999995</v>
+      </c>
+      <c r="C30">
+        <v>804.31700000000001</v>
+      </c>
+      <c r="D30">
+        <v>802.06700000000001</v>
+      </c>
+      <c r="E30">
+        <v>803.18299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1.2889900000000001E-3</v>
+      </c>
+      <c r="B31">
+        <v>1.2585700000000001E-3</v>
+      </c>
+      <c r="C31">
+        <v>1.24789E-3</v>
+      </c>
+      <c r="D31">
+        <v>1.2753700000000001E-3</v>
+      </c>
+      <c r="E31">
+        <v>1.2399100000000001E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <f>AVERAGE(A31:E31)</f>
+        <v>1.262146E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>A21/A24</f>
+        <v>1.2639148422560404</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:E33" si="1">B21/B24</f>
+        <v>1.2555156154495446</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>1.2534500192779148</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1.2547344698484244</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.2557049418604651</v>
+      </c>
+      <c r="F33" s="1">
+        <f>AVERAGE(A33:E33)</f>
+        <v>1.2566639777384778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>A27/A30</f>
+        <v>1.2578242729933371</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:E34" si="2">B27/B30</f>
+        <v>1.2580602203158002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>1.2538588641045756</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1.2587851139618011</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>1.2558408233241989</v>
+      </c>
+      <c r="F34" s="1">
+        <f>AVERAGE(A34:E34)</f>
+        <v>1.2568738589399426</v>
       </c>
     </row>
   </sheetData>
